--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T14:59:46+00:00</t>
+    <t>2025-01-22T15:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:51:58+00:00</t>
+    <t>2025-01-22T16:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T16:10:55+00:00</t>
+    <t>2025-01-23T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
     <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T09:02:53+00:00</t>
+    <t>2025-01-23T18:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/usage-context-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/usage-context-ror-codesystem</t>
   </si>
   <si>
     <t>Concept</t>
@@ -452,17 +456,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -477,7 +477,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +499,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -524,7 +524,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -571,7 +571,54 @@
         <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>38</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T18:05:37+00:00</t>
+    <t>2025-01-24T10:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T10:49:55+00:00</t>
+    <t>2025-01-24T11:25:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T11:25:40+00:00</t>
+    <t>2025-01-24T11:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T11:45:47+00:00</t>
+    <t>2025-01-24T13:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:24:43+00:00</t>
+    <t>2025-01-24T13:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,66 +335,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -413,28 +418,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -456,28 +461,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -499,32 +504,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -546,32 +551,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -593,32 +598,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:58:14+00:00</t>
+    <t>2025-01-24T14:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T14:57:39+00:00</t>
+    <t>2025-01-24T15:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T15:04:45+00:00</t>
+    <t>2025-01-24T16:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:06:18+00:00</t>
+    <t>2025-01-24T16:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:30:15+00:00</t>
+    <t>2025-01-24T16:46:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/cp-questionnaire-usecontext/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:46:59+00:00</t>
+    <t>2025-01-24T17:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
